--- a/bin/Debug/netcoreapp3.1/Excel/VII C.xlsx
+++ b/bin/Debug/netcoreapp3.1/Excel/VII C.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amit\Code\React\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E0A4BA-2422-41E3-84C6-520E8A91121B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,24 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>STUDENT NAME</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ADITI PANDIT</t>
   </si>
@@ -131,9 +124,6 @@
   </si>
   <si>
     <t>ZAYEED MISBAH KHAN</t>
-  </si>
-  <si>
-    <t>SL NO</t>
   </si>
   <si>
     <t>SINDHU PRIYA</t>
@@ -151,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -224,19 +214,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -290,19 +267,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -321,46 +285,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,9 +409,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,6 +461,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,399 +654,383 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="12" t="s">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
       <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>35</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B14" s="2">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B15" s="2">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B16" s="5">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B17" s="6">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B18" s="2">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B19" s="2">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B20" s="2">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B21" s="2">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B22" s="2">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B23" s="2">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B24" s="2">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B25" s="2">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B26" s="2">
-        <v>21</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B27" s="2">
-        <v>22</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B28" s="2">
-        <v>23</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B29" s="2">
-        <v>24</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B30" s="2">
-        <v>25</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B31" s="2">
-        <v>26</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B32" s="2">
-        <v>27</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B33" s="2">
-        <v>28</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B34" s="2">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B35" s="2">
-        <v>30</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B36" s="2">
-        <v>31</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B37" s="2">
-        <v>32</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B38" s="2">
-        <v>33</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B39" s="2">
+      <c r="B35" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>36</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="15.75">
-      <c r="B40" s="7">
-        <v>35</v>
-      </c>
-      <c r="C40" s="8" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" ht="15.75">
-      <c r="B41" s="10">
+      <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="15.75">
-      <c r="B42" s="10">
+    </row>
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>38</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="15.75">
-      <c r="B43" s="10">
-        <v>38</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="26.25">
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="2:3" ht="26.25">
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="2:3" ht="26.25">
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="2:3" ht="26.25">
-      <c r="B47" s="9"/>
-    </row>
-    <row r="48" spans="2:3" ht="26.25">
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" spans="2:2" ht="26.25">
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="2:2" ht="26.25">
-      <c r="B50" s="9"/>
-    </row>
-    <row r="51" spans="2:2" ht="26.25">
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="2:2" ht="26.25">
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="2:2" ht="26.25">
-      <c r="B53" s="9"/>
-    </row>
-    <row r="54" spans="2:2" ht="26.25">
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="2:2" ht="26.25">
-      <c r="B55" s="9"/>
+    </row>
+    <row r="39" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+    </row>
+    <row r="41" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+    </row>
+    <row r="42" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+    </row>
+    <row r="46" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+    </row>
+    <row r="48" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+    </row>
+    <row r="49" spans="1:1" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+    </row>
+    <row r="50" spans="1:1" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C4:C5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bin/Debug/netcoreapp3.1/Excel/VII C.xlsx
+++ b/bin/Debug/netcoreapp3.1/Excel/VII C.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amit\Code\React\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amit\Code\React\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E0A4BA-2422-41E3-84C6-520E8A91121B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B97328-F43A-4CAA-86AB-31FE25642F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -658,7 +656,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,28 +1008,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>